--- a/APPSHEET/EXCEL/caja_cierre_gral_melos1.xlsx
+++ b/APPSHEET/EXCEL/caja_cierre_gral_melos1.xlsx
@@ -128,7 +128,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-03</t>
+            <t xml:space="preserve">2023-06-26</t>
           </r>
         </is>
       </c>
@@ -139,7 +139,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-02</t>
+            <t xml:space="preserve">2023-06-25</t>
           </r>
         </is>
       </c>
@@ -150,7 +150,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-01</t>
+            <t xml:space="preserve">2023-06-24</t>
           </r>
         </is>
       </c>
@@ -161,7 +161,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-31</t>
+            <t xml:space="preserve">2023-06-23</t>
           </r>
         </is>
       </c>
@@ -172,7 +172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-30</t>
+            <t xml:space="preserve">2023-06-22</t>
           </r>
         </is>
       </c>
@@ -183,7 +183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-29</t>
+            <t xml:space="preserve">2023-06-21</t>
           </r>
         </is>
       </c>
@@ -194,7 +194,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-28</t>
+            <t xml:space="preserve">2023-06-20</t>
           </r>
         </is>
       </c>
@@ -205,7 +205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-27</t>
+            <t xml:space="preserve">2023-06-19</t>
           </r>
         </is>
       </c>
@@ -216,7 +216,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-26</t>
+            <t xml:space="preserve">2023-06-18</t>
           </r>
         </is>
       </c>
@@ -227,7 +227,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-25</t>
+            <t xml:space="preserve">2023-06-17</t>
           </r>
         </is>
       </c>
@@ -238,7 +238,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-24</t>
+            <t xml:space="preserve">2023-06-16</t>
           </r>
         </is>
       </c>
@@ -249,7 +249,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-23</t>
+            <t xml:space="preserve">2023-06-15</t>
           </r>
         </is>
       </c>
@@ -260,7 +260,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-22</t>
+            <t xml:space="preserve">2023-06-14</t>
           </r>
         </is>
       </c>
@@ -271,7 +271,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-21</t>
+            <t xml:space="preserve">2023-06-13</t>
           </r>
         </is>
       </c>
@@ -282,7 +282,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-20</t>
+            <t xml:space="preserve">2023-06-12</t>
           </r>
         </is>
       </c>
@@ -293,7 +293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-19</t>
+            <t xml:space="preserve">2023-06-11</t>
           </r>
         </is>
       </c>
@@ -304,7 +304,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-18</t>
+            <t xml:space="preserve">2023-06-10</t>
           </r>
         </is>
       </c>
@@ -315,7 +315,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-17</t>
+            <t xml:space="preserve">2023-06-09</t>
           </r>
         </is>
       </c>
@@ -326,7 +326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-16</t>
+            <t xml:space="preserve">2023-06-08</t>
           </r>
         </is>
       </c>
@@ -337,7 +337,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-15</t>
+            <t xml:space="preserve">2023-06-07</t>
           </r>
         </is>
       </c>
@@ -348,7 +348,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-14</t>
+            <t xml:space="preserve">2023-06-06</t>
           </r>
         </is>
       </c>
@@ -359,7 +359,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-13</t>
+            <t xml:space="preserve">2023-06-05</t>
           </r>
         </is>
       </c>
@@ -370,7 +370,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-12</t>
+            <t xml:space="preserve">2023-06-04</t>
           </r>
         </is>
       </c>
@@ -381,7 +381,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-11</t>
+            <t xml:space="preserve">2023-06-03</t>
           </r>
         </is>
       </c>
@@ -392,7 +392,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-10</t>
+            <t xml:space="preserve">2023-06-02</t>
           </r>
         </is>
       </c>
@@ -403,7 +403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-09</t>
+            <t xml:space="preserve">2023-06-01</t>
           </r>
         </is>
       </c>
@@ -414,7 +414,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-08</t>
+            <t xml:space="preserve">2023-05-31</t>
           </r>
         </is>
       </c>
@@ -425,7 +425,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-07</t>
+            <t xml:space="preserve">2023-05-30</t>
           </r>
         </is>
       </c>
@@ -436,7 +436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-06</t>
+            <t xml:space="preserve">2023-05-29</t>
           </r>
         </is>
       </c>
@@ -447,7 +447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-05</t>
+            <t xml:space="preserve">2023-05-28</t>
           </r>
         </is>
       </c>
@@ -458,7 +458,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-04</t>
+            <t xml:space="preserve">2023-05-27</t>
           </r>
         </is>
       </c>
@@ -469,7 +469,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-03</t>
+            <t xml:space="preserve">2023-05-26</t>
           </r>
         </is>
       </c>
@@ -480,7 +480,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-02</t>
+            <t xml:space="preserve">2023-05-25</t>
           </r>
         </is>
       </c>
@@ -491,7 +491,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-01</t>
+            <t xml:space="preserve">2023-05-24</t>
           </r>
         </is>
       </c>
@@ -502,7 +502,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-30</t>
+            <t xml:space="preserve">2023-05-23</t>
           </r>
         </is>
       </c>
@@ -513,7 +513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-29</t>
+            <t xml:space="preserve">2023-05-22</t>
           </r>
         </is>
       </c>
@@ -524,7 +524,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-28</t>
+            <t xml:space="preserve">2023-05-21</t>
           </r>
         </is>
       </c>
@@ -535,7 +535,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-27</t>
+            <t xml:space="preserve">2023-05-20</t>
           </r>
         </is>
       </c>
@@ -546,7 +546,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-26</t>
+            <t xml:space="preserve">2023-05-19</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-25</t>
+            <t xml:space="preserve">2023-05-18</t>
           </r>
         </is>
       </c>
@@ -568,7 +568,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-24</t>
+            <t xml:space="preserve">2023-05-17</t>
           </r>
         </is>
       </c>
@@ -579,7 +579,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-23</t>
+            <t xml:space="preserve">2023-05-16</t>
           </r>
         </is>
       </c>
@@ -590,7 +590,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-22</t>
+            <t xml:space="preserve">2023-05-15</t>
           </r>
         </is>
       </c>
@@ -601,7 +601,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-21</t>
+            <t xml:space="preserve">2023-05-14</t>
           </r>
         </is>
       </c>
@@ -612,7 +612,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-20</t>
+            <t xml:space="preserve">2023-05-13</t>
           </r>
         </is>
       </c>
@@ -623,7 +623,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-19</t>
+            <t xml:space="preserve">2023-05-12</t>
           </r>
         </is>
       </c>
@@ -634,7 +634,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-18</t>
+            <t xml:space="preserve">2023-05-11</t>
           </r>
         </is>
       </c>
@@ -645,7 +645,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-17</t>
+            <t xml:space="preserve">2023-05-10</t>
           </r>
         </is>
       </c>
@@ -656,7 +656,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-16</t>
+            <t xml:space="preserve">2023-05-09</t>
           </r>
         </is>
       </c>
@@ -667,7 +667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-15</t>
+            <t xml:space="preserve">2023-05-08</t>
           </r>
         </is>
       </c>
@@ -678,7 +678,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-14</t>
+            <t xml:space="preserve">2023-05-07</t>
           </r>
         </is>
       </c>
@@ -689,7 +689,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-13</t>
+            <t xml:space="preserve">2023-05-06</t>
           </r>
         </is>
       </c>
@@ -700,7 +700,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-12</t>
+            <t xml:space="preserve">2023-05-05</t>
           </r>
         </is>
       </c>
@@ -711,7 +711,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-11</t>
+            <t xml:space="preserve">2023-05-04</t>
           </r>
         </is>
       </c>
@@ -722,7 +722,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-10</t>
+            <t xml:space="preserve">2023-05-03</t>
           </r>
         </is>
       </c>
@@ -733,7 +733,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-09</t>
+            <t xml:space="preserve">2023-05-02</t>
           </r>
         </is>
       </c>
@@ -744,7 +744,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-08</t>
+            <t xml:space="preserve">2023-05-01</t>
           </r>
         </is>
       </c>
@@ -755,7 +755,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-07</t>
+            <t xml:space="preserve">2023-04-30</t>
           </r>
         </is>
       </c>
@@ -766,7 +766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-06</t>
+            <t xml:space="preserve">2023-04-29</t>
           </r>
         </is>
       </c>
@@ -777,7 +777,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-05</t>
+            <t xml:space="preserve">2023-04-28</t>
           </r>
         </is>
       </c>
@@ -788,7 +788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-04</t>
+            <t xml:space="preserve">2023-04-27</t>
           </r>
         </is>
       </c>
@@ -799,7 +799,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-03</t>
+            <t xml:space="preserve">2023-04-26</t>
           </r>
         </is>
       </c>
@@ -810,7 +810,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-02</t>
+            <t xml:space="preserve">2023-04-25</t>
           </r>
         </is>
       </c>
@@ -821,7 +821,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-01</t>
+            <t xml:space="preserve">2023-04-24</t>
           </r>
         </is>
       </c>
@@ -832,7 +832,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-31</t>
+            <t xml:space="preserve">2023-04-23</t>
           </r>
         </is>
       </c>
@@ -843,7 +843,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-30</t>
+            <t xml:space="preserve">2023-04-22</t>
           </r>
         </is>
       </c>
@@ -854,7 +854,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-29</t>
+            <t xml:space="preserve">2023-04-21</t>
           </r>
         </is>
       </c>
@@ -865,7 +865,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-28</t>
+            <t xml:space="preserve">2023-04-20</t>
           </r>
         </is>
       </c>
@@ -876,7 +876,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-27</t>
+            <t xml:space="preserve">2023-04-19</t>
           </r>
         </is>
       </c>
@@ -887,7 +887,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-26</t>
+            <t xml:space="preserve">2023-04-18</t>
           </r>
         </is>
       </c>
@@ -898,7 +898,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-25</t>
+            <t xml:space="preserve">2023-04-17</t>
           </r>
         </is>
       </c>
@@ -909,7 +909,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-24</t>
+            <t xml:space="preserve">2023-04-16</t>
           </r>
         </is>
       </c>
@@ -920,7 +920,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-23</t>
+            <t xml:space="preserve">2023-04-15</t>
           </r>
         </is>
       </c>
@@ -931,7 +931,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-22</t>
+            <t xml:space="preserve">2023-04-14</t>
           </r>
         </is>
       </c>
@@ -942,7 +942,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-21</t>
+            <t xml:space="preserve">2023-04-13</t>
           </r>
         </is>
       </c>
@@ -953,7 +953,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-20</t>
+            <t xml:space="preserve">2023-04-12</t>
           </r>
         </is>
       </c>
@@ -964,7 +964,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-19</t>
+            <t xml:space="preserve">2023-04-11</t>
           </r>
         </is>
       </c>
@@ -975,7 +975,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-18</t>
+            <t xml:space="preserve">2023-04-10</t>
           </r>
         </is>
       </c>
@@ -986,7 +986,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-17</t>
+            <t xml:space="preserve">2023-04-09</t>
           </r>
         </is>
       </c>
@@ -997,7 +997,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-16</t>
+            <t xml:space="preserve">2023-04-08</t>
           </r>
         </is>
       </c>
@@ -1008,7 +1008,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-15</t>
+            <t xml:space="preserve">2023-04-07</t>
           </r>
         </is>
       </c>
@@ -1019,7 +1019,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-14</t>
+            <t xml:space="preserve">2023-04-06</t>
           </r>
         </is>
       </c>
@@ -1030,7 +1030,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-13</t>
+            <t xml:space="preserve">2023-04-05</t>
           </r>
         </is>
       </c>
@@ -1041,7 +1041,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-12</t>
+            <t xml:space="preserve">2023-04-04</t>
           </r>
         </is>
       </c>
@@ -1052,7 +1052,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-11</t>
+            <t xml:space="preserve">2023-04-03</t>
           </r>
         </is>
       </c>
@@ -1063,7 +1063,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-10</t>
+            <t xml:space="preserve">2023-04-02</t>
           </r>
         </is>
       </c>
@@ -1074,7 +1074,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-09</t>
+            <t xml:space="preserve">2023-04-01</t>
           </r>
         </is>
       </c>
@@ -1085,7 +1085,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-08</t>
+            <t xml:space="preserve">2023-03-31</t>
           </r>
         </is>
       </c>
@@ -1096,7 +1096,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-07</t>
+            <t xml:space="preserve">2023-03-30</t>
           </r>
         </is>
       </c>
@@ -1107,7 +1107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-06</t>
+            <t xml:space="preserve">2023-03-29</t>
           </r>
         </is>
       </c>
@@ -1118,7 +1118,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-05</t>
+            <t xml:space="preserve">2023-03-28</t>
           </r>
         </is>
       </c>
@@ -1129,7 +1129,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-04</t>
+            <t xml:space="preserve">2023-03-27</t>
           </r>
         </is>
       </c>
@@ -1140,7 +1140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-03</t>
+            <t xml:space="preserve">2023-03-26</t>
           </r>
         </is>
       </c>
@@ -1151,7 +1151,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-02</t>
+            <t xml:space="preserve">2023-03-25</t>
           </r>
         </is>
       </c>
@@ -1162,7 +1162,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-01</t>
+            <t xml:space="preserve">2023-03-24</t>
           </r>
         </is>
       </c>
@@ -1173,7 +1173,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-28</t>
+            <t xml:space="preserve">2023-03-23</t>
           </r>
         </is>
       </c>
@@ -1184,7 +1184,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-27</t>
+            <t xml:space="preserve">2023-03-22</t>
           </r>
         </is>
       </c>
@@ -1195,7 +1195,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-26</t>
+            <t xml:space="preserve">2023-03-21</t>
           </r>
         </is>
       </c>
@@ -1206,7 +1206,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-25</t>
+            <t xml:space="preserve">2023-03-20</t>
           </r>
         </is>
       </c>
@@ -1217,7 +1217,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-24</t>
+            <t xml:space="preserve">2023-03-19</t>
           </r>
         </is>
       </c>
@@ -1228,7 +1228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-23</t>
+            <t xml:space="preserve">2023-03-18</t>
           </r>
         </is>
       </c>
@@ -1239,7 +1239,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-22</t>
+            <t xml:space="preserve">2023-03-17</t>
           </r>
         </is>
       </c>
@@ -1250,7 +1250,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-21</t>
+            <t xml:space="preserve">2023-03-16</t>
           </r>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-20</t>
+            <t xml:space="preserve">2023-03-15</t>
           </r>
         </is>
       </c>
@@ -1272,7 +1272,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-19</t>
+            <t xml:space="preserve">2023-03-14</t>
           </r>
         </is>
       </c>
@@ -1283,7 +1283,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-18</t>
+            <t xml:space="preserve">2023-03-13</t>
           </r>
         </is>
       </c>
@@ -1294,7 +1294,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-17</t>
+            <t xml:space="preserve">2023-03-12</t>
           </r>
         </is>
       </c>
@@ -1305,7 +1305,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-16</t>
+            <t xml:space="preserve">2023-03-11</t>
           </r>
         </is>
       </c>
@@ -1316,7 +1316,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-15</t>
+            <t xml:space="preserve">2023-03-10</t>
           </r>
         </is>
       </c>
@@ -1327,7 +1327,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-14</t>
+            <t xml:space="preserve">2023-03-09</t>
           </r>
         </is>
       </c>
@@ -1338,7 +1338,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-13</t>
+            <t xml:space="preserve">2023-03-08</t>
           </r>
         </is>
       </c>
@@ -1349,7 +1349,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-12</t>
+            <t xml:space="preserve">2023-03-07</t>
           </r>
         </is>
       </c>
@@ -1360,7 +1360,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-11</t>
+            <t xml:space="preserve">2023-03-06</t>
           </r>
         </is>
       </c>
@@ -1371,7 +1371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-10</t>
+            <t xml:space="preserve">2023-03-05</t>
           </r>
         </is>
       </c>
@@ -1382,7 +1382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-09</t>
+            <t xml:space="preserve">2023-03-04</t>
           </r>
         </is>
       </c>
@@ -1393,7 +1393,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-08</t>
+            <t xml:space="preserve">2023-03-03</t>
           </r>
         </is>
       </c>
@@ -1404,7 +1404,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-07</t>
+            <t xml:space="preserve">2023-03-02</t>
           </r>
         </is>
       </c>
@@ -1415,7 +1415,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-06</t>
+            <t xml:space="preserve">2023-03-01</t>
           </r>
         </is>
       </c>
@@ -1426,7 +1426,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-05</t>
+            <t xml:space="preserve">2023-02-28</t>
           </r>
         </is>
       </c>
@@ -1437,7 +1437,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-04</t>
+            <t xml:space="preserve">2023-02-27</t>
           </r>
         </is>
       </c>
@@ -1448,7 +1448,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-03</t>
+            <t xml:space="preserve">2023-02-26</t>
           </r>
         </is>
       </c>
@@ -1459,7 +1459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-02</t>
+            <t xml:space="preserve">2023-02-25</t>
           </r>
         </is>
       </c>
@@ -1470,7 +1470,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-01</t>
+            <t xml:space="preserve">2023-02-24</t>
           </r>
         </is>
       </c>
@@ -1481,7 +1481,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-31</t>
+            <t xml:space="preserve">2023-02-23</t>
           </r>
         </is>
       </c>
@@ -1492,7 +1492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-30</t>
+            <t xml:space="preserve">2023-02-22</t>
           </r>
         </is>
       </c>
@@ -1503,7 +1503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-29</t>
+            <t xml:space="preserve">2023-02-21</t>
           </r>
         </is>
       </c>
@@ -1514,7 +1514,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-28</t>
+            <t xml:space="preserve">2023-02-20</t>
           </r>
         </is>
       </c>
@@ -1525,7 +1525,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-27</t>
+            <t xml:space="preserve">2023-02-19</t>
           </r>
         </is>
       </c>
@@ -1536,7 +1536,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-26</t>
+            <t xml:space="preserve">2023-02-18</t>
           </r>
         </is>
       </c>
@@ -1547,7 +1547,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-25</t>
+            <t xml:space="preserve">2023-02-17</t>
           </r>
         </is>
       </c>
@@ -1558,7 +1558,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-24</t>
+            <t xml:space="preserve">2023-02-16</t>
           </r>
         </is>
       </c>
@@ -1569,7 +1569,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-23</t>
+            <t xml:space="preserve">2023-02-15</t>
           </r>
         </is>
       </c>
@@ -1580,7 +1580,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-22</t>
+            <t xml:space="preserve">2023-02-14</t>
           </r>
         </is>
       </c>
@@ -1591,7 +1591,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-21</t>
+            <t xml:space="preserve">2023-02-13</t>
           </r>
         </is>
       </c>
@@ -1602,7 +1602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-20</t>
+            <t xml:space="preserve">2023-02-12</t>
           </r>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-19</t>
+            <t xml:space="preserve">2023-02-11</t>
           </r>
         </is>
       </c>
@@ -1624,13 +1624,453 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">2023-02-10</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="139" customHeight="1" ht="20">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-09</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="140" customHeight="1" ht="20">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-08</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="141" customHeight="1" ht="20">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-07</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="142" customHeight="1" ht="20">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-06</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="143" customHeight="1" ht="20">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-05</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="144" customHeight="1" ht="20">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-04</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="145" customHeight="1" ht="20">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-03</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="146" customHeight="1" ht="20">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-02</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="147" customHeight="1" ht="20">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-01</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="148" customHeight="1" ht="20">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-31</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="149" customHeight="1" ht="20">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-30</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="150" customHeight="1" ht="20">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-29</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="151" customHeight="1" ht="20">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-28</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="152" customHeight="1" ht="20">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-27</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="153" customHeight="1" ht="20">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-26</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="154" customHeight="1" ht="20">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-25</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="155" customHeight="1" ht="20">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-24</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="156" customHeight="1" ht="20">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-23</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="157" customHeight="1" ht="20">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-22</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="158" customHeight="1" ht="20">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-21</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="159" customHeight="1" ht="20">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-20</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="160" customHeight="1" ht="20">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-19</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="161" customHeight="1" ht="20">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">2023-01-18</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="139" customHeight="1" ht="180">
-      <c r="A139" s="2" t="inlineStr"/>
+    <row r="162" customHeight="1" ht="20">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-17</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="163" customHeight="1" ht="20">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-16</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="164" customHeight="1" ht="20">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-15</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="165" customHeight="1" ht="20">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-14</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="166" customHeight="1" ht="20">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-13</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="167" customHeight="1" ht="20">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-12</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="168" customHeight="1" ht="20">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-11</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="169" customHeight="1" ht="20">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-10</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="170" customHeight="1" ht="20">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-09</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="171" customHeight="1" ht="20">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-08</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="172" customHeight="1" ht="20">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-07</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="173" customHeight="1" ht="20">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-06</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="174" customHeight="1" ht="20">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-05</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="175" customHeight="1" ht="20">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-04</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="176" customHeight="1" ht="20">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-03</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="177" customHeight="1" ht="20">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-02</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="178" customHeight="1" ht="20">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-01</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="179" customHeight="1" ht="180">
+      <c r="A179" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
